--- a/HBCD_ERPs_github.xlsx
+++ b/HBCD_ERPs_github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropboxes\SMcNair\SMcNair_Playground\HBCD\Data Release\DataRelease_Githhub\HBCD-data-release-notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmahesh\Documents\GitHub\HBCD-EEG-Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A7955-4716-455E-8211-B79AA9DC8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9D948-B679-4B6B-862C-6029D931C4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1635" windowWidth="22470" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -52,9 +52,6 @@
     <t>FACE</t>
   </si>
   <si>
-    <t>200-350</t>
-  </si>
-  <si>
     <t>p8</t>
   </si>
   <si>
@@ -64,18 +61,6 @@
     <t>oz</t>
   </si>
   <si>
-    <t>250-350</t>
-  </si>
-  <si>
-    <t>355-625</t>
-  </si>
-  <si>
-    <t>250-300</t>
-  </si>
-  <si>
-    <t>325-625</t>
-  </si>
-  <si>
     <t>VEP</t>
   </si>
   <si>
@@ -115,12 +100,6 @@
     <t>N2</t>
   </si>
   <si>
-    <t>80-100</t>
-  </si>
-  <si>
-    <t>100-180</t>
-  </si>
-  <si>
     <t>Nc</t>
   </si>
   <si>
@@ -128,6 +107,24 @@
   </si>
   <si>
     <t>FCz</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>200-390</t>
+  </si>
+  <si>
+    <t>250-390</t>
+  </si>
+  <si>
+    <t>400-600</t>
+  </si>
+  <si>
+    <t>200-340</t>
+  </si>
+  <si>
+    <t>350-600</t>
   </si>
 </sst>
 </file>
@@ -408,10 +405,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -421,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -438,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -455,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -472,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -486,53 +483,53 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>45725</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4">
-        <v>45725</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>45725</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -540,13 +537,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
         <v>45722</v>
@@ -557,16 +554,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>45722</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -574,47 +571,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4">
         <v>45817</v>
@@ -625,16 +622,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4">
-        <v>45817</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,61 +642,61 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4">
-        <v>45817</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>45817</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4">
-        <v>45725</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4">
         <v>45722</v>
@@ -707,86 +704,52 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4">
-        <v>45722</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4">
-        <v>45722</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
         <v>45817</v>
       </c>
     </row>
